--- a/assets/translations/Danish.Denmark.da-DK.xlsx
+++ b/assets/translations/Danish.Denmark.da-DK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mspitschan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mspitschan/Projects/LadenburgConsensusStatements/assets/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B9E22E-77A3-4C0D-BABA-35DF69EAE444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F79DD-9599-3543-B514-F902AA7BF458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4300" windowWidth="28800" windowHeight="19080" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4300" windowWidth="28800" windowHeight="19080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contributors" sheetId="2" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Joachim</t>
   </si>
   <si>
-    <t>jsh@ocutune.dk</t>
-  </si>
-  <si>
     <t>Ocutune</t>
   </si>
   <si>
@@ -114,6 +111,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Lys- og lysspektrum (1-6) </t>
@@ -136,6 +134,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Lys kan beskrives ud fra dets spektrum: hvor meget energi der findes for hver bølgelængde på tværs af det synlige spektrum (fra cirka 380 til 780 nm). </t>
@@ -192,6 +191,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Den lys­eksponering som mennesker udsættes for i løbet af døgnet og året kan være ret komplekst og afhænger af, hvor man befinder sig, og hvad man foretager sig. </t>
@@ -268,6 +268,7 @@
         <sz val="12"/>
         <color rgb="FFD13438"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>­</t>
@@ -277,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FF343A40"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>eksponering ved at vurdere lysets intensitet ved forskellige bølgelængder.  </t>
@@ -387,6 +389,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Menneskets fotoreceptorer (7-9) </t>
@@ -648,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF343A40"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Disse fysiologiske funktioner drevet af lys bestemmes primært af, på et givent tidspunkt, hvor meget lys der når frem til nethinden, og hvor meget de stimulerer de intrinsisk-lysfølsomme retinale ganglieceller (ipRGC’er).  </t>
@@ -937,6 +941,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Forskning i lysets ikke-billeddannende påvirkninger (24–26). </t>
@@ -1029,6 +1034,9 @@
   </si>
   <si>
     <t>At koordinere og håndtere sin lysudsættelse er en del af en sund livsstil – ligesom kost, motion og en god søvnhygiejne er det.</t>
+  </si>
+  <si>
+    <t>jsh@ocutune.com</t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1129,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1180,6 +1189,7 @@
       <sz val="12"/>
       <color rgb="FF343A40"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1187,6 +1197,7 @@
       <sz val="12"/>
       <color rgb="FFD13438"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1365,9 +1376,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
@@ -1416,7 +1426,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,10 +1443,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1458,9 +1467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1498,7 +1507,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1604,7 +1613,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1746,7 +1755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1756,18 +1765,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="21.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="2"/>
+    <col min="4" max="4" width="25.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1791,7 +1800,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" ht="15.75">
+    <row r="2" spans="1:7" s="14" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="14" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="14" customFormat="1">
       <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
@@ -1820,10 +1829,10 @@
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="18"/>
     </row>
@@ -1845,809 +1854,807 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="49.625" customWidth="1"/>
-    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
     <col min="5" max="5" width="134.5" customWidth="1"/>
-    <col min="6" max="7" width="42.375" customWidth="1"/>
+    <col min="6" max="7" width="42.33203125" customWidth="1"/>
     <col min="8" max="8" width="58" customWidth="1"/>
     <col min="9" max="9" width="55" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.100000000000001">
+    <row r="1" spans="1:9" ht="17">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="13" customFormat="1" ht="68">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" ht="74.25">
-      <c r="A2" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="74.25">
+    </row>
+    <row r="3" spans="1:9" ht="68">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="89.25">
+    </row>
+    <row r="4" spans="1:9" ht="85">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="H4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="89.25">
+    </row>
+    <row r="5" spans="1:9" ht="85">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="H5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="89.25">
+    </row>
+    <row r="6" spans="1:9" ht="85">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45">
+    </row>
+    <row r="7" spans="1:9" ht="68">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="F7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="21" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="70">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="60">
-      <c r="A8" t="s">
+      <c r="B8" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="H8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60">
+    </row>
+    <row r="9" spans="1:9" ht="68">
       <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="F9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
+    </row>
+    <row r="10" spans="1:9" ht="34">
       <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="F10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="21" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="68">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="45">
-      <c r="A11" t="s">
+      <c r="B11" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60">
+    </row>
+    <row r="12" spans="1:9" ht="68">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="F12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45">
+    </row>
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="F13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="H13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="I13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45">
+    </row>
+    <row r="14" spans="1:9" ht="51">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="F14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="H14" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60">
+    </row>
+    <row r="15" spans="1:9" ht="68">
       <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C15" s="7">
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="F15" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="H15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45">
+    </row>
+    <row r="16" spans="1:9" ht="51">
       <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C16" s="7">
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="H16" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="I16" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="68">
       <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C17" s="7">
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="I17" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C18" s="7">
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="45">
+    </row>
+    <row r="19" spans="1:9" ht="51">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C19" s="7">
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="F19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="H19" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45">
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="H20" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="60">
+    </row>
+    <row r="21" spans="1:9" ht="68">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="C21" s="7">
         <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="H21" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="21" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="51">
+      <c r="A22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="45">
-      <c r="A22" t="s">
+      <c r="B22" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="C22" s="7">
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="F22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60">
+    </row>
+    <row r="23" spans="1:9" ht="68">
       <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="C23" s="7">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="H23" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30">
+    </row>
+    <row r="24" spans="1:9" ht="34">
       <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="C24" s="7">
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="F24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="H24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="I24" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="21" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="51">
+      <c r="A25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="45">
-      <c r="A25" t="s">
+      <c r="B25" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="C25" s="7">
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="H25" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="I25" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="I25" s="21" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="85">
+      <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60">
-      <c r="A26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="C26" s="7">
         <v>25</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="H26" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="I26" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I26" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="74.25">
+    </row>
+    <row r="27" spans="1:9" ht="85">
       <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="C27" s="9">
         <v>26</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="H27" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75"/>
-    <row r="29" spans="1:9" ht="15.75"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2662,7 +2669,7 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
@@ -2670,50 +2677,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21">
       <c r="A1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="115" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="114.95" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="68">
+      <c r="A3" s="17" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="85">
+      <c r="A4" s="17" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="79.5">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="26" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="84">
+      <c r="A5" s="17" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="79.5">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="26" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="85">
+      <c r="A6" s="17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="79.5">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="26" t="s">
         <v>194</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
